--- a/data/top_labeled_topic_terms.xlsx
+++ b/data/top_labeled_topic_terms.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t xml:space="preserve">topic_label</t>
   </si>
@@ -26,280 +26,580 @@
     <t xml:space="preserve">beta</t>
   </si>
   <si>
-    <t xml:space="preserve">Artificial intelligence in education research and development</t>
+    <t xml:space="preserve">Student-centered AI program for English language learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el</t>
+  </si>
+  <si>
+    <t xml:space="preserve">program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial intelligence enhancing feedback in education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting neurodiverse students through AI learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neurodiverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student-centered AI software in school management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complaint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethical AI principles for inclusive data use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">principle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense Department's Strategic Artificial Intelligence Development Initiative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artificial_intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initiative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal equity simulation for inclusive student work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civil_right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial intelligence in student-centered literacy education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">literacy</t>
   </si>
   <si>
     <t xml:space="preserve">education</t>
   </si>
   <si>
+    <t xml:space="preserve">well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting inclusive AI design for student learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclusive AI resource for student assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People-centered AI for accessible image description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accessibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity-focused AI models for student education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclusive AI: Empowering Students with Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inclusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empowering AI for Inclusive Human Privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher-student AI interaction loop for administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data protection system for human privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Education Research Program in Artificial Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artificial_intelligence_systems</t>
+  </si>
+  <si>
     <t xml:space="preserve">relate</t>
   </si>
   <si>
-    <t xml:space="preserve">artificial_intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include</t>
+    <t xml:space="preserve">institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenure</t>
   </si>
   <si>
     <t xml:space="preserve">field</t>
   </si>
   <si>
-    <t xml:space="preserve">artificial_intelligence_systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">science</t>
+    <t xml:space="preserve">Artificial Intelligence in Student-Centered Educational Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitigate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistive AI tools for people with disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assistive_technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educator-led AI tools enhancing student learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Intelligence for User-Centric Accessibility Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data privacy in student information systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surveillance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student-focused AI design for learning products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Housing Accessibility Law for Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paragraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student-centered AI-driven software for OCR applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supportive AI language resource for diverse output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individualized AI-assisted student document reading system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w.a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student privacy risks in AI edtech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edtech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education foundation advancing AI research and support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foundation</t>
   </si>
   <si>
     <t xml:space="preserve">development</t>
   </si>
   <si>
-    <t xml:space="preserve">Student-centered AI policy for inclusive education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word recognition software for grade-level accommodations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w.a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accommodation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defense initiative leveraging artificial intelligence for security.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initiative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paragraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial intelligence in student academic integrity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cheat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial intelligence for inclusive user expertise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student-centered AI software for school investigations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complaint</t>
+    <t xml:space="preserve">advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistive AI for People with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et</t>
+  </si>
+  <si>
+    <t xml:space="preserve">al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai_systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assistive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School-based AI tool for parent engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
   </si>
   <si>
     <t xml:space="preserve">investigation</t>
   </si>
   <si>
-    <t xml:space="preserve">example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data utilization in ethical surveillance systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensitive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surveillance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Intelligence Leadership in Organizational Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">institute</t>
+    <t xml:space="preserve">Artificial intelligence in government risk management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal_government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclusive Technology Education for Student Rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">students_with_disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education-focused AI development principles and policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Intelligence Integration in Executive Programs</t>
   </si>
   <si>
     <t xml:space="preserve">secretary</t>
   </si>
   <si>
-    <t xml:space="preserve">support</t>
-  </si>
-  <si>
     <t xml:space="preserve">director</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subsection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial intelligence for student learning support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">learn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need</t>
-  </si>
-  <si>
-    <t xml:space="preserve">must</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Intelligence in Risk Management Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal_government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education-focused AI tools for student learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">educator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inclusive AI in Education Policy Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enormous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">take</t>
   </si>
 </sst>
 </file>
@@ -656,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.054160130873748</v>
+        <v>0.0469811635805313</v>
       </c>
     </row>
     <row r="3">
@@ -670,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0361016204235983</v>
+        <v>0.036884043023774</v>
       </c>
     </row>
     <row r="4">
@@ -684,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0361002361663313</v>
+        <v>0.0268969229913549</v>
       </c>
     </row>
     <row r="5">
@@ -698,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.033084039632884</v>
+        <v>0.0240202162098866</v>
       </c>
     </row>
     <row r="6">
@@ -712,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0270785550854135</v>
+        <v>0.0212778900474479</v>
       </c>
     </row>
     <row r="7">
@@ -726,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0270336270283825</v>
+        <v>0.0211155287177644</v>
       </c>
     </row>
     <row r="8">
@@ -740,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0240255290966483</v>
+        <v>0.0181482586014091</v>
       </c>
     </row>
     <row r="9">
@@ -754,7 +1054,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0210553840370201</v>
+        <v>0.0179972170878713</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0210373069668736</v>
+        <v>0.0179244360206715</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0180422030753196</v>
+        <v>0.0153404912555752</v>
       </c>
     </row>
     <row r="12">
@@ -793,10 +1093,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0515001184147656</v>
+        <v>0.0273898488333779</v>
       </c>
     </row>
     <row r="13">
@@ -807,10 +1107,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0421441030366982</v>
+        <v>0.027043541558447</v>
       </c>
     </row>
     <row r="14">
@@ -821,10 +1121,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0282464176058131</v>
+        <v>0.0219552360193352</v>
       </c>
     </row>
     <row r="15">
@@ -835,10 +1135,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0234678849370523</v>
+        <v>0.0212658297939833</v>
       </c>
     </row>
     <row r="16">
@@ -849,10 +1149,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0233773489949896</v>
+        <v>0.0170925123823519</v>
       </c>
     </row>
     <row r="17">
@@ -863,10 +1163,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0233536998233922</v>
+        <v>0.016728355055264</v>
       </c>
     </row>
     <row r="18">
@@ -877,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0187215143832598</v>
+        <v>0.0166210774429502</v>
       </c>
     </row>
     <row r="19">
@@ -891,10 +1191,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0141757178623483</v>
+        <v>0.0166163955285077</v>
       </c>
     </row>
     <row r="20">
@@ -905,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0141192037895609</v>
+        <v>0.0138448038264944</v>
       </c>
     </row>
     <row r="21">
@@ -919,337 +1219,337 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0140938757351852</v>
+        <v>0.0136922459638745</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0622235178170107</v>
+        <v>0.0540628381086996</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0257467431517783</v>
+        <v>0.0293800435390282</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0257466243896493</v>
+        <v>0.0268294951590323</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0193141308039354</v>
+        <v>0.0223876113870181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0171743441864743</v>
+        <v>0.0201819092919238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0150314627338248</v>
+        <v>0.0180350671139165</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0150178895211268</v>
+        <v>0.0157181318859833</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0128826530679663</v>
+        <v>0.0156424144289447</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0128824397831828</v>
+        <v>0.0156134351027818</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0128759316040395</v>
+        <v>0.0156095132215225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>0.043109375034032</v>
+        <v>0.0885429072593075</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" t="n">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0274267035630829</v>
+        <v>0.0396097298923118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0248067579033243</v>
+        <v>0.0374397654556812</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0182809759111382</v>
+        <v>0.023126757448331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B36" t="n">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0169758028971164</v>
+        <v>0.0205716901540796</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B37" t="n">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0156724208376509</v>
+        <v>0.013239971427813</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B38" t="n">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0143622928099964</v>
+        <v>0.0108375564579884</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B39" t="n">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0143609369225989</v>
+        <v>0.0108349019176516</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B40" t="n">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0130613268801142</v>
+        <v>0.0108279523636691</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B41" t="n">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0130606182517465</v>
+        <v>0.0104981796913611</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0423667643157863</v>
+        <v>0.0175411300080912</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B43" t="n">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0353001391111916</v>
+        <v>0.0166468260013462</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B44" t="n">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0329552276614407</v>
+        <v>0.0166276385694266</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B45" t="n">
         <v>5</v>
@@ -1258,231 +1558,231 @@
         <v>28</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0258780866013191</v>
+        <v>0.0147804116391428</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B46" t="n">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0235255065392215</v>
+        <v>0.0147517008720102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B47" t="n">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0211770350178415</v>
+        <v>0.0139863770602085</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B48" t="n">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0141224048844163</v>
+        <v>0.013860322294498</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B49" t="n">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0141218789792216</v>
+        <v>0.0120084515464916</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B50" t="n">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0117694699332707</v>
+        <v>0.012003013757366</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B51" t="n">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0117644531316155</v>
+        <v>0.0119937805110517</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B52" t="n">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0614775815423952</v>
+        <v>0.0626255593847267</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B53" t="n">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D53" t="n">
-        <v>0.039614979543874</v>
+        <v>0.0456681674650756</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B54" t="n">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0338387035708569</v>
+        <v>0.0288189473322224</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B55" t="n">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0202157530844739</v>
+        <v>0.0216287226757246</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B56" t="n">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0127909620931918</v>
+        <v>0.019224205959627</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B57" t="n">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0103161534876113</v>
+        <v>0.0192198172244891</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B58" t="n">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00990279467176326</v>
+        <v>0.0192025680552786</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B59" t="n">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00949067020062512</v>
+        <v>0.0167503575042184</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B60" t="n">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00949025594222067</v>
+        <v>0.0166772723045181</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B61" t="n">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00824820027354415</v>
+        <v>0.0144304782153581</v>
       </c>
     </row>
     <row r="62">
@@ -1493,10 +1793,10 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D62" t="n">
-        <v>0.066481981195888</v>
+        <v>0.0537789422824089</v>
       </c>
     </row>
     <row r="63">
@@ -1507,10 +1807,10 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0338853644357106</v>
+        <v>0.0444429748591274</v>
       </c>
     </row>
     <row r="64">
@@ -1521,10 +1821,10 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D64" t="n">
-        <v>0.018868467553166</v>
+        <v>0.0326748151449127</v>
       </c>
     </row>
     <row r="65">
@@ -1535,10 +1835,10 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0180150744751092</v>
+        <v>0.0280238510985137</v>
       </c>
     </row>
     <row r="66">
@@ -1549,10 +1849,10 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0167164861434357</v>
+        <v>0.0272583412291814</v>
       </c>
     </row>
     <row r="67">
@@ -1563,10 +1863,10 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0154405730702605</v>
+        <v>0.02677305634723</v>
       </c>
     </row>
     <row r="68">
@@ -1577,10 +1877,10 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0132942442186427</v>
+        <v>0.0263239336228928</v>
       </c>
     </row>
     <row r="69">
@@ -1591,10 +1891,10 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0124365510432464</v>
+        <v>0.0257516810347111</v>
       </c>
     </row>
     <row r="70">
@@ -1605,10 +1905,10 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D70" t="n">
-        <v>0.011150011280152</v>
+        <v>0.0222260200190564</v>
       </c>
     </row>
     <row r="71">
@@ -1619,239 +1919,239 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0107228834635628</v>
+        <v>0.0206661391262063</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B72" t="n">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0284124724962087</v>
+        <v>0.057865894395126</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B73" t="n">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0257029129546858</v>
+        <v>0.0263265889145678</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B74" t="n">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0230004484174248</v>
+        <v>0.0235166989469603</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B75" t="n">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0184893476153287</v>
+        <v>0.0211780550636081</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B76" t="n">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0135290875685257</v>
+        <v>0.0184193525533952</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B77" t="n">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0117245140537413</v>
+        <v>0.0184137573964524</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B78" t="n">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0112732299960316</v>
+        <v>0.0157713421554393</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B79" t="n">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D79" t="n">
-        <v>0.010822940470872</v>
+        <v>0.0130974522220315</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B80" t="n">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0103727664337848</v>
+        <v>0.010513832064862</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B81" t="n">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0085686507313908</v>
+        <v>0.0104481188196579</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B82" t="n">
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0381044905954222</v>
+        <v>0.0404347761556347</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B83" t="n">
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0170444988324657</v>
+        <v>0.0356757725382769</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B84" t="n">
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0160445566586076</v>
+        <v>0.0179153851145766</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B85" t="n">
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0150401442700037</v>
+        <v>0.0178748113803737</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B86" t="n">
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0145385273020241</v>
+        <v>0.0178575918690975</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B87" t="n">
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0135335611044942</v>
+        <v>0.0175482859958175</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B88" t="n">
         <v>9</v>
@@ -1860,49 +2160,49 @@
         <v>73</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0115311207951113</v>
+        <v>0.016386319567384</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B89" t="n">
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0110284648153241</v>
+        <v>0.0156760385447666</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B90" t="n">
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0110281589672631</v>
+        <v>0.0136478833918016</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B91" t="n">
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0110264194399444</v>
+        <v>0.0134683849182877</v>
       </c>
     </row>
     <row r="92">
@@ -1913,10 +2213,10 @@
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D92" t="n">
-        <v>0.04913368423297</v>
+        <v>0.0393997065605109</v>
       </c>
     </row>
     <row r="93">
@@ -1927,10 +2227,10 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0227759320301083</v>
+        <v>0.031451960483664</v>
       </c>
     </row>
     <row r="94">
@@ -1941,10 +2241,10 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0160826206481924</v>
+        <v>0.0230382336197807</v>
       </c>
     </row>
     <row r="95">
@@ -1955,10 +2255,10 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0151844716043858</v>
+        <v>0.0228749548938485</v>
       </c>
     </row>
     <row r="96">
@@ -1969,10 +2269,10 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0116156521712729</v>
+        <v>0.020466091546829</v>
       </c>
     </row>
     <row r="97">
@@ -1983,10 +2283,10 @@
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0116147196077008</v>
+        <v>0.0187557074008657</v>
       </c>
     </row>
     <row r="98">
@@ -1997,10 +2297,10 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0102752269330408</v>
+        <v>0.0125399019363352</v>
       </c>
     </row>
     <row r="99">
@@ -2011,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00982885999306273</v>
+        <v>0.0124912486285784</v>
       </c>
     </row>
     <row r="100">
@@ -2025,10 +2325,10 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D100" t="n">
-        <v>0.00982863639881444</v>
+        <v>0.0104607549246586</v>
       </c>
     </row>
     <row r="101">
@@ -2039,570 +2339,3510 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00982818883489972</v>
+        <v>0.0104513057434669</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B102" t="n">
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0397205219977755</v>
+        <v>0.0648032613989654</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B103" t="n">
         <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0256312849325216</v>
+        <v>0.0482957178509027</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B104" t="n">
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0121769574434688</v>
+        <v>0.0374971724439744</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B105" t="n">
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0115334829125896</v>
+        <v>0.0214634010304734</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B106" t="n">
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0102486794187203</v>
+        <v>0.0213271118214776</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B107" t="n">
         <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D107" t="n">
-        <v>0.00896565474361715</v>
+        <v>0.0187491873063833</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B108" t="n">
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0083315826771222</v>
+        <v>0.0186676289066322</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B109" t="n">
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00833134149020547</v>
+        <v>0.0159896501686577</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B110" t="n">
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0076904671273923</v>
+        <v>0.0134016689004057</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B111" t="n">
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00768956587710513</v>
+        <v>0.0133958373785444</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B112" t="n">
         <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0453902080684624</v>
+        <v>0.0466024083978144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B113" t="n">
         <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0191676869656965</v>
+        <v>0.0225754518054723</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B114" t="n">
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0153812144649197</v>
+        <v>0.0218412835351314</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B115" t="n">
         <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0153778507054733</v>
+        <v>0.0168775815050208</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B116" t="n">
         <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="D116" t="n">
-        <v>0.013114586279295</v>
+        <v>0.0152702495652803</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B117" t="n">
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0103307384122233</v>
+        <v>0.0137412883718832</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B118" t="n">
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D118" t="n">
-        <v>0.00882594385324204</v>
+        <v>0.0137044164696335</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B119" t="n">
         <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D119" t="n">
-        <v>0.00832285312328648</v>
+        <v>0.012868309779427</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B120" t="n">
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D120" t="n">
-        <v>0.00807011154390156</v>
+        <v>0.0126561808169972</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B121" t="n">
         <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0078183209407493</v>
+        <v>0.0124578267644288</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B122" t="n">
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0515001184125064</v>
+        <v>0.0519852549608306</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B123" t="n">
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0421441030338351</v>
+        <v>0.0483052175702671</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B124" t="n">
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0282464176035561</v>
+        <v>0.038025852569045</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B125" t="n">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D125" t="n">
-        <v>0.023467884934606</v>
+        <v>0.0308897474556258</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B126" t="n">
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0233773489931481</v>
+        <v>0.0270884793063584</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B127" t="n">
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0233536998212989</v>
+        <v>0.026392582992662</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B128" t="n">
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0187215143816767</v>
+        <v>0.0217351500889336</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B129" t="n">
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0141757178669537</v>
+        <v>0.0213095240527778</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B130" t="n">
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0141192037872457</v>
+        <v>0.0209630387880297</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B131" t="n">
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0140938757328445</v>
+        <v>0.0204510644197731</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B132" t="n">
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D132" t="n">
-        <v>0.30761566680534</v>
+        <v>0.0538246533439486</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B133" t="n">
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0476503039609153</v>
+        <v>0.0428254664375337</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B134" t="n">
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0448855717125736</v>
+        <v>0.0333061504923784</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B135" t="n">
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0318301540501817</v>
+        <v>0.0229245928227018</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B136" t="n">
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0313775661478124</v>
+        <v>0.00971568028776795</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B137" t="n">
         <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0241818182304495</v>
+        <v>0.00969820601795291</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B138" t="n">
         <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0225179651862014</v>
+        <v>0.00967518048952904</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B139" t="n">
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D139" t="n">
-        <v>0.022053556984962</v>
+        <v>0.00963119258525726</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B140" t="n">
         <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0192422830990809</v>
+        <v>0.00880249318151704</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B141" t="n">
         <v>14</v>
       </c>
       <c r="C141" t="s">
+        <v>94</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.00808939389576376</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
         <v>95</v>
       </c>
-      <c r="D141" t="n">
-        <v>0.0179323779791833</v>
+      <c r="B142" t="n">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0511052289702242</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>95</v>
+      </c>
+      <c r="B143" t="n">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.0280033339237658</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>95</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.0270495697598358</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>95</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0183062942810575</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>95</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0161340321186707</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>95</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0141758089149293</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>95</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>98</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0141090274330683</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>95</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>99</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0123209331461041</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>95</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.012101229904363</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>95</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>100</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.010113441153389</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>101</v>
+      </c>
+      <c r="B152" t="n">
+        <v>16</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0385919249597907</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B153" t="n">
+        <v>16</v>
+      </c>
+      <c r="C153" t="s">
+        <v>44</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0261060291717427</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" t="n">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0260469032104095</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" t="n">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0237601241831317</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>101</v>
+      </c>
+      <c r="B156" t="n">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0165814182197485</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>101</v>
+      </c>
+      <c r="B157" t="n">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>102</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0142160256614978</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>101</v>
+      </c>
+      <c r="B158" t="n">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>103</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.0141847835443685</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159" t="n">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>104</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.013898420012467</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" t="n">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
+        <v>105</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0118336704504471</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>101</v>
+      </c>
+      <c r="B161" t="n">
+        <v>16</v>
+      </c>
+      <c r="C161" t="s">
+        <v>92</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.0118291344056265</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>106</v>
+      </c>
+      <c r="B162" t="n">
+        <v>17</v>
+      </c>
+      <c r="C162" t="s">
+        <v>67</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.0694072263802347</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>106</v>
+      </c>
+      <c r="B163" t="n">
+        <v>17</v>
+      </c>
+      <c r="C163" t="s">
+        <v>91</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0439376872713788</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B164" t="n">
+        <v>17</v>
+      </c>
+      <c r="C164" t="s">
+        <v>107</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.0320758058745746</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>106</v>
+      </c>
+      <c r="B165" t="n">
+        <v>17</v>
+      </c>
+      <c r="C165" t="s">
+        <v>108</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.0312178864443135</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>106</v>
+      </c>
+      <c r="B166" t="n">
+        <v>17</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.0252224718841869</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>106</v>
+      </c>
+      <c r="B167" t="n">
+        <v>17</v>
+      </c>
+      <c r="C167" t="s">
+        <v>109</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.0250719053059266</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>106</v>
+      </c>
+      <c r="B168" t="n">
+        <v>17</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.0250538612911552</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>106</v>
+      </c>
+      <c r="B169" t="n">
+        <v>17</v>
+      </c>
+      <c r="C169" t="s">
+        <v>110</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.0249745856631035</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>106</v>
+      </c>
+      <c r="B170" t="n">
+        <v>17</v>
+      </c>
+      <c r="C170" t="s">
+        <v>111</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.0248663699386363</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>106</v>
+      </c>
+      <c r="B171" t="n">
+        <v>17</v>
+      </c>
+      <c r="C171" t="s">
+        <v>112</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.018867245380035</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>113</v>
+      </c>
+      <c r="B172" t="n">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.0480156955296928</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>113</v>
+      </c>
+      <c r="B173" t="n">
+        <v>18</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.0372793323040858</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>113</v>
+      </c>
+      <c r="B174" t="n">
+        <v>18</v>
+      </c>
+      <c r="C174" t="s">
+        <v>114</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.0258619694964555</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B175" t="n">
+        <v>18</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.0243922396155431</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>113</v>
+      </c>
+      <c r="B176" t="n">
+        <v>18</v>
+      </c>
+      <c r="C176" t="s">
+        <v>115</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.0145861093922137</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>113</v>
+      </c>
+      <c r="B177" t="n">
+        <v>18</v>
+      </c>
+      <c r="C177" t="s">
+        <v>116</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.0144977754773748</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>113</v>
+      </c>
+      <c r="B178" t="n">
+        <v>18</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.014263314801267</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>113</v>
+      </c>
+      <c r="B179" t="n">
+        <v>18</v>
+      </c>
+      <c r="C179" t="s">
+        <v>67</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.013704363622847</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>113</v>
+      </c>
+      <c r="B180" t="n">
+        <v>18</v>
+      </c>
+      <c r="C180" t="s">
+        <v>117</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.0127489226251409</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>113</v>
+      </c>
+      <c r="B181" t="n">
+        <v>18</v>
+      </c>
+      <c r="C181" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.0114876412618668</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>118</v>
+      </c>
+      <c r="B182" t="n">
+        <v>19</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.0542070383788722</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>118</v>
+      </c>
+      <c r="B183" t="n">
+        <v>19</v>
+      </c>
+      <c r="C183" t="s">
+        <v>80</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.0372923197036529</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>118</v>
+      </c>
+      <c r="B184" t="n">
+        <v>19</v>
+      </c>
+      <c r="C184" t="s">
+        <v>75</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.0289770034306038</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>118</v>
+      </c>
+      <c r="B185" t="n">
+        <v>19</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.0201700172585107</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>118</v>
+      </c>
+      <c r="B186" t="n">
+        <v>19</v>
+      </c>
+      <c r="C186" t="s">
+        <v>119</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.0198129184667386</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>118</v>
+      </c>
+      <c r="B187" t="n">
+        <v>19</v>
+      </c>
+      <c r="C187" t="s">
+        <v>120</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.0169578771491989</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>118</v>
+      </c>
+      <c r="B188" t="n">
+        <v>19</v>
+      </c>
+      <c r="C188" t="s">
+        <v>121</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.0159212210768385</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>118</v>
+      </c>
+      <c r="B189" t="n">
+        <v>19</v>
+      </c>
+      <c r="C189" t="s">
+        <v>99</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.0144134930700107</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>118</v>
+      </c>
+      <c r="B190" t="n">
+        <v>19</v>
+      </c>
+      <c r="C190" t="s">
+        <v>40</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.0141651095787049</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>118</v>
+      </c>
+      <c r="B191" t="n">
+        <v>19</v>
+      </c>
+      <c r="C191" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.0141507586268225</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>122</v>
+      </c>
+      <c r="B192" t="n">
+        <v>20</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.054246917998926</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>122</v>
+      </c>
+      <c r="B193" t="n">
+        <v>20</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.0299549856927352</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>122</v>
+      </c>
+      <c r="B194" t="n">
+        <v>20</v>
+      </c>
+      <c r="C194" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.0203945321618625</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>122</v>
+      </c>
+      <c r="B195" t="n">
+        <v>20</v>
+      </c>
+      <c r="C195" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.019793448017868</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>122</v>
+      </c>
+      <c r="B196" t="n">
+        <v>20</v>
+      </c>
+      <c r="C196" t="s">
+        <v>123</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0165794848739471</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>122</v>
+      </c>
+      <c r="B197" t="n">
+        <v>20</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.0161752782230915</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>122</v>
+      </c>
+      <c r="B198" t="n">
+        <v>20</v>
+      </c>
+      <c r="C198" t="s">
+        <v>124</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.0132998090218568</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>122</v>
+      </c>
+      <c r="B199" t="n">
+        <v>20</v>
+      </c>
+      <c r="C199" t="s">
+        <v>125</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.0132255894568058</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>122</v>
+      </c>
+      <c r="B200" t="n">
+        <v>20</v>
+      </c>
+      <c r="C200" t="s">
+        <v>99</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.0125971271704598</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>122</v>
+      </c>
+      <c r="B201" t="n">
+        <v>20</v>
+      </c>
+      <c r="C201" t="s">
+        <v>126</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.00997568447539487</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>127</v>
+      </c>
+      <c r="B202" t="n">
+        <v>21</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.0791331770162602</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>127</v>
+      </c>
+      <c r="B203" t="n">
+        <v>21</v>
+      </c>
+      <c r="C203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.0295878785655258</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>127</v>
+      </c>
+      <c r="B204" t="n">
+        <v>21</v>
+      </c>
+      <c r="C204" t="s">
+        <v>119</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.0229802123655081</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>127</v>
+      </c>
+      <c r="B205" t="n">
+        <v>21</v>
+      </c>
+      <c r="C205" t="s">
+        <v>81</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.0228828175822594</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>127</v>
+      </c>
+      <c r="B206" t="n">
+        <v>21</v>
+      </c>
+      <c r="C206" t="s">
+        <v>128</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.0201270268149621</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>127</v>
+      </c>
+      <c r="B207" t="n">
+        <v>21</v>
+      </c>
+      <c r="C207" t="s">
+        <v>129</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.0196527892396927</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>127</v>
+      </c>
+      <c r="B208" t="n">
+        <v>21</v>
+      </c>
+      <c r="C208" t="s">
+        <v>82</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.0196377506599973</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>127</v>
+      </c>
+      <c r="B209" t="n">
+        <v>21</v>
+      </c>
+      <c r="C209" t="s">
+        <v>130</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.0196282252801818</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>127</v>
+      </c>
+      <c r="B210" t="n">
+        <v>21</v>
+      </c>
+      <c r="C210" t="s">
+        <v>109</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.016383544591907</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>127</v>
+      </c>
+      <c r="B211" t="n">
+        <v>21</v>
+      </c>
+      <c r="C211" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.016352341818878</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>131</v>
+      </c>
+      <c r="B212" t="n">
+        <v>22</v>
+      </c>
+      <c r="C212" t="s">
+        <v>40</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.046831708535598</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>131</v>
+      </c>
+      <c r="B213" t="n">
+        <v>22</v>
+      </c>
+      <c r="C213" t="s">
+        <v>44</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0339254183192002</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>131</v>
+      </c>
+      <c r="B214" t="n">
+        <v>22</v>
+      </c>
+      <c r="C214" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.0336935175974524</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>131</v>
+      </c>
+      <c r="B215" t="n">
+        <v>22</v>
+      </c>
+      <c r="C215" t="s">
+        <v>109</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.0221523081979178</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>131</v>
+      </c>
+      <c r="B216" t="n">
+        <v>22</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.0195736785780364</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>131</v>
+      </c>
+      <c r="B217" t="n">
+        <v>22</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.0194072548197544</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>131</v>
+      </c>
+      <c r="B218" t="n">
+        <v>22</v>
+      </c>
+      <c r="C218" t="s">
+        <v>45</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.0182290176865056</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>22</v>
+      </c>
+      <c r="C219" t="s">
+        <v>132</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.0156243760514657</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>131</v>
+      </c>
+      <c r="B220" t="n">
+        <v>22</v>
+      </c>
+      <c r="C220" t="s">
+        <v>133</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.0117332588076449</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>131</v>
+      </c>
+      <c r="B221" t="n">
+        <v>22</v>
+      </c>
+      <c r="C221" t="s">
+        <v>134</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.0117169796936645</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>135</v>
+      </c>
+      <c r="B222" t="n">
+        <v>23</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.0232701807031291</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>135</v>
+      </c>
+      <c r="B223" t="n">
+        <v>23</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.0215256711455534</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>135</v>
+      </c>
+      <c r="B224" t="n">
+        <v>23</v>
+      </c>
+      <c r="C224" t="s">
+        <v>126</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.0176986091376479</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>135</v>
+      </c>
+      <c r="B225" t="n">
+        <v>23</v>
+      </c>
+      <c r="C225" t="s">
+        <v>73</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.0157113084519746</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>135</v>
+      </c>
+      <c r="B226" t="n">
+        <v>23</v>
+      </c>
+      <c r="C226" t="s">
+        <v>70</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.0156866483236396</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>135</v>
+      </c>
+      <c r="B227" t="n">
+        <v>23</v>
+      </c>
+      <c r="C227" t="s">
+        <v>86</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.0137978647092427</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>135</v>
+      </c>
+      <c r="B228" t="n">
+        <v>23</v>
+      </c>
+      <c r="C228" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.0137256758619266</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>135</v>
+      </c>
+      <c r="B229" t="n">
+        <v>23</v>
+      </c>
+      <c r="C229" t="s">
+        <v>114</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.0137249082743554</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>135</v>
+      </c>
+      <c r="B230" t="n">
+        <v>23</v>
+      </c>
+      <c r="C230" t="s">
+        <v>136</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.0118508206313377</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>135</v>
+      </c>
+      <c r="B231" t="n">
+        <v>23</v>
+      </c>
+      <c r="C231" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.0116296217465909</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>137</v>
+      </c>
+      <c r="B232" t="n">
+        <v>24</v>
+      </c>
+      <c r="C232" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.0240940631427123</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>137</v>
+      </c>
+      <c r="B233" t="n">
+        <v>24</v>
+      </c>
+      <c r="C233" t="s">
+        <v>58</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.0219076613512489</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>137</v>
+      </c>
+      <c r="B234" t="n">
+        <v>24</v>
+      </c>
+      <c r="C234" t="s">
+        <v>138</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.0196661911027907</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>137</v>
+      </c>
+      <c r="B235" t="n">
+        <v>24</v>
+      </c>
+      <c r="C235" t="s">
+        <v>139</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.0153303081181678</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>137</v>
+      </c>
+      <c r="B236" t="n">
+        <v>24</v>
+      </c>
+      <c r="C236" t="s">
+        <v>140</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.0153231654773749</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>137</v>
+      </c>
+      <c r="B237" t="n">
+        <v>24</v>
+      </c>
+      <c r="C237" t="s">
+        <v>141</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.0153202025984144</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>137</v>
+      </c>
+      <c r="B238" t="n">
+        <v>24</v>
+      </c>
+      <c r="C238" t="s">
+        <v>142</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.0152996750973872</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>137</v>
+      </c>
+      <c r="B239" t="n">
+        <v>24</v>
+      </c>
+      <c r="C239" t="s">
+        <v>143</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.0131152213748484</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>137</v>
+      </c>
+      <c r="B240" t="n">
+        <v>24</v>
+      </c>
+      <c r="C240" t="s">
+        <v>55</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.0131010305493019</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>137</v>
+      </c>
+      <c r="B241" t="n">
+        <v>24</v>
+      </c>
+      <c r="C241" t="s">
+        <v>80</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.0130749344744395</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>144</v>
+      </c>
+      <c r="B242" t="n">
+        <v>25</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.0802221999091663</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>144</v>
+      </c>
+      <c r="B243" t="n">
+        <v>25</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.0220565712050651</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>144</v>
+      </c>
+      <c r="B244" t="n">
+        <v>25</v>
+      </c>
+      <c r="C244" t="s">
+        <v>23</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.0200112470827635</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>144</v>
+      </c>
+      <c r="B245" t="n">
+        <v>25</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.0199554536905242</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>144</v>
+      </c>
+      <c r="B246" t="n">
+        <v>25</v>
+      </c>
+      <c r="C246" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.017780037623123</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>144</v>
+      </c>
+      <c r="B247" t="n">
+        <v>25</v>
+      </c>
+      <c r="C247" t="s">
+        <v>145</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.0156422837532191</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>144</v>
+      </c>
+      <c r="B248" t="n">
+        <v>25</v>
+      </c>
+      <c r="C248" t="s">
+        <v>33</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.0154556279473646</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>144</v>
+      </c>
+      <c r="B249" t="n">
+        <v>25</v>
+      </c>
+      <c r="C249" t="s">
+        <v>146</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.0132831340965616</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>144</v>
+      </c>
+      <c r="B250" t="n">
+        <v>25</v>
+      </c>
+      <c r="C250" t="s">
+        <v>147</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.0132801993768513</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>144</v>
+      </c>
+      <c r="B251" t="n">
+        <v>25</v>
+      </c>
+      <c r="C251" t="s">
+        <v>148</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.0132702101940761</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>149</v>
+      </c>
+      <c r="B252" t="n">
+        <v>26</v>
+      </c>
+      <c r="C252" t="s">
+        <v>29</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.074972793533728</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>149</v>
+      </c>
+      <c r="B253" t="n">
+        <v>26</v>
+      </c>
+      <c r="C253" t="s">
+        <v>150</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.0556547966482988</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>149</v>
+      </c>
+      <c r="B254" t="n">
+        <v>26</v>
+      </c>
+      <c r="C254" t="s">
+        <v>77</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.0373487340138342</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>149</v>
+      </c>
+      <c r="B255" t="n">
+        <v>26</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.037231760913765</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>149</v>
+      </c>
+      <c r="B256" t="n">
+        <v>26</v>
+      </c>
+      <c r="C256" t="s">
+        <v>151</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.0370556328616816</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>149</v>
+      </c>
+      <c r="B257" t="n">
+        <v>26</v>
+      </c>
+      <c r="C257" t="s">
+        <v>152</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.0369671834290252</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>149</v>
+      </c>
+      <c r="B258" t="n">
+        <v>26</v>
+      </c>
+      <c r="C258" t="s">
+        <v>153</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.0367994210128216</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>149</v>
+      </c>
+      <c r="B259" t="n">
+        <v>26</v>
+      </c>
+      <c r="C259" t="s">
+        <v>154</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.0191611084186751</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>149</v>
+      </c>
+      <c r="B260" t="n">
+        <v>26</v>
+      </c>
+      <c r="C260" t="s">
+        <v>155</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.0186828030984002</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>149</v>
+      </c>
+      <c r="B261" t="n">
+        <v>26</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.0186621943735575</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>156</v>
+      </c>
+      <c r="B262" t="n">
+        <v>27</v>
+      </c>
+      <c r="C262" t="s">
+        <v>157</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.0422368394628716</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>156</v>
+      </c>
+      <c r="B263" t="n">
+        <v>27</v>
+      </c>
+      <c r="C263" t="s">
+        <v>158</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.0305998593014376</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>156</v>
+      </c>
+      <c r="B264" t="n">
+        <v>27</v>
+      </c>
+      <c r="C264" t="s">
+        <v>159</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.0291426408833964</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>156</v>
+      </c>
+      <c r="B265" t="n">
+        <v>27</v>
+      </c>
+      <c r="C265" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.0218401335487347</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>156</v>
+      </c>
+      <c r="B266" t="n">
+        <v>27</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.0216799242754249</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>156</v>
+      </c>
+      <c r="B267" t="n">
+        <v>27</v>
+      </c>
+      <c r="C267" t="s">
+        <v>160</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.0189610945594209</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>156</v>
+      </c>
+      <c r="B268" t="n">
+        <v>27</v>
+      </c>
+      <c r="C268" t="s">
+        <v>161</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.013110491387593</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>156</v>
+      </c>
+      <c r="B269" t="n">
+        <v>27</v>
+      </c>
+      <c r="C269" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.0128144188405812</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>156</v>
+      </c>
+      <c r="B270" t="n">
+        <v>27</v>
+      </c>
+      <c r="C270" t="s">
+        <v>162</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.0116566492788897</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>156</v>
+      </c>
+      <c r="B271" t="n">
+        <v>27</v>
+      </c>
+      <c r="C271" t="s">
+        <v>163</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.0116538603418631</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>164</v>
+      </c>
+      <c r="B272" t="n">
+        <v>28</v>
+      </c>
+      <c r="C272" t="s">
+        <v>117</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.0435948754670035</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>164</v>
+      </c>
+      <c r="B273" t="n">
+        <v>28</v>
+      </c>
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.0287873073858916</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>164</v>
+      </c>
+      <c r="B274" t="n">
+        <v>28</v>
+      </c>
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.0282608080668096</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>164</v>
+      </c>
+      <c r="B275" t="n">
+        <v>28</v>
+      </c>
+      <c r="C275" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.0172479797912555</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>164</v>
+      </c>
+      <c r="B276" t="n">
+        <v>28</v>
+      </c>
+      <c r="C276" t="s">
+        <v>165</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.0169562237435633</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>164</v>
+      </c>
+      <c r="B277" t="n">
+        <v>28</v>
+      </c>
+      <c r="C277" t="s">
+        <v>19</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.0168724167583724</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>164</v>
+      </c>
+      <c r="B278" t="n">
+        <v>28</v>
+      </c>
+      <c r="C278" t="s">
+        <v>166</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.0168466897530445</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>164</v>
+      </c>
+      <c r="B279" t="n">
+        <v>28</v>
+      </c>
+      <c r="C279" t="s">
+        <v>92</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.0144903923593506</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>164</v>
+      </c>
+      <c r="B280" t="n">
+        <v>28</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.0144847225164554</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>164</v>
+      </c>
+      <c r="B281" t="n">
+        <v>28</v>
+      </c>
+      <c r="C281" t="s">
+        <v>167</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.0144196583060646</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>168</v>
+      </c>
+      <c r="B282" t="n">
+        <v>29</v>
+      </c>
+      <c r="C282" t="s">
+        <v>67</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.0377532323857493</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>168</v>
+      </c>
+      <c r="B283" t="n">
+        <v>29</v>
+      </c>
+      <c r="C283" t="s">
+        <v>169</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.032762544548999</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>168</v>
+      </c>
+      <c r="B284" t="n">
+        <v>29</v>
+      </c>
+      <c r="C284" t="s">
+        <v>170</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0301499706403052</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>168</v>
+      </c>
+      <c r="B285" t="n">
+        <v>29</v>
+      </c>
+      <c r="C285" t="s">
+        <v>29</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.0251547750897897</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>168</v>
+      </c>
+      <c r="B286" t="n">
+        <v>29</v>
+      </c>
+      <c r="C286" t="s">
+        <v>171</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.025116657944867</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>168</v>
+      </c>
+      <c r="B287" t="n">
+        <v>29</v>
+      </c>
+      <c r="C287" t="s">
+        <v>47</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.0250854259924194</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>168</v>
+      </c>
+      <c r="B288" t="n">
+        <v>29</v>
+      </c>
+      <c r="C288" t="s">
+        <v>91</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.022581667371312</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>168</v>
+      </c>
+      <c r="B289" t="n">
+        <v>29</v>
+      </c>
+      <c r="C289" t="s">
+        <v>109</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.0200305916570252</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>168</v>
+      </c>
+      <c r="B290" t="n">
+        <v>29</v>
+      </c>
+      <c r="C290" t="s">
+        <v>112</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.0175960439607547</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>168</v>
+      </c>
+      <c r="B291" t="n">
+        <v>29</v>
+      </c>
+      <c r="C291" t="s">
+        <v>172</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.0175772228388685</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>173</v>
+      </c>
+      <c r="B292" t="n">
+        <v>30</v>
+      </c>
+      <c r="C292" t="s">
+        <v>174</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.0337828909130105</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>173</v>
+      </c>
+      <c r="B293" t="n">
+        <v>30</v>
+      </c>
+      <c r="C293" t="s">
+        <v>175</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.0337780865202805</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>173</v>
+      </c>
+      <c r="B294" t="n">
+        <v>30</v>
+      </c>
+      <c r="C294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.0288563952245451</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>173</v>
+      </c>
+      <c r="B295" t="n">
+        <v>30</v>
+      </c>
+      <c r="C295" t="s">
+        <v>75</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.0241479064902268</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>173</v>
+      </c>
+      <c r="B296" t="n">
+        <v>30</v>
+      </c>
+      <c r="C296" t="s">
+        <v>80</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.0241308309582304</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>173</v>
+      </c>
+      <c r="B297" t="n">
+        <v>30</v>
+      </c>
+      <c r="C297" t="s">
+        <v>176</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.0169145388777555</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>173</v>
+      </c>
+      <c r="B298" t="n">
+        <v>30</v>
+      </c>
+      <c r="C298" t="s">
+        <v>177</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.0144734763378076</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>173</v>
+      </c>
+      <c r="B299" t="n">
+        <v>30</v>
+      </c>
+      <c r="C299" t="s">
+        <v>82</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.0144710001213544</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>173</v>
+      </c>
+      <c r="B300" t="n">
+        <v>30</v>
+      </c>
+      <c r="C300" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.0144447693097647</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>173</v>
+      </c>
+      <c r="B301" t="n">
+        <v>30</v>
+      </c>
+      <c r="C301" t="s">
+        <v>178</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.0120683684166023</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>179</v>
+      </c>
+      <c r="B302" t="n">
+        <v>31</v>
+      </c>
+      <c r="C302" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.0389646014231725</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>179</v>
+      </c>
+      <c r="B303" t="n">
+        <v>31</v>
+      </c>
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.0353394433518544</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>179</v>
+      </c>
+      <c r="B304" t="n">
+        <v>31</v>
+      </c>
+      <c r="C304" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.0268791497607594</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>179</v>
+      </c>
+      <c r="B305" t="n">
+        <v>31</v>
+      </c>
+      <c r="C305" t="s">
+        <v>180</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.0185412992994449</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>179</v>
+      </c>
+      <c r="B306" t="n">
+        <v>31</v>
+      </c>
+      <c r="C306" t="s">
+        <v>148</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.0185352108715134</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>179</v>
+      </c>
+      <c r="B307" t="n">
+        <v>31</v>
+      </c>
+      <c r="C307" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.0184815424288842</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>179</v>
+      </c>
+      <c r="B308" t="n">
+        <v>31</v>
+      </c>
+      <c r="C308" t="s">
+        <v>181</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.0168423069713101</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>179</v>
+      </c>
+      <c r="B309" t="n">
+        <v>31</v>
+      </c>
+      <c r="C309" t="s">
+        <v>99</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.0152066456758248</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>179</v>
+      </c>
+      <c r="B310" t="n">
+        <v>31</v>
+      </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.015193945633005</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>179</v>
+      </c>
+      <c r="B311" t="n">
+        <v>31</v>
+      </c>
+      <c r="C311" t="s">
+        <v>165</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.0135081652477333</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>182</v>
+      </c>
+      <c r="B312" t="n">
+        <v>32</v>
+      </c>
+      <c r="C312" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.0419439800386923</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>182</v>
+      </c>
+      <c r="B313" t="n">
+        <v>32</v>
+      </c>
+      <c r="C313" t="s">
+        <v>9</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.024160108932177</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>182</v>
+      </c>
+      <c r="B314" t="n">
+        <v>32</v>
+      </c>
+      <c r="C314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.0131714030117756</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>182</v>
+      </c>
+      <c r="B315" t="n">
+        <v>32</v>
+      </c>
+      <c r="C315" t="s">
+        <v>183</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.0108468910690694</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>182</v>
+      </c>
+      <c r="B316" t="n">
+        <v>32</v>
+      </c>
+      <c r="C316" t="s">
+        <v>44</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.0100775555881065</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>182</v>
+      </c>
+      <c r="B317" t="n">
+        <v>32</v>
+      </c>
+      <c r="C317" t="s">
+        <v>93</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.00929696364678783</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>182</v>
+      </c>
+      <c r="B318" t="n">
+        <v>32</v>
+      </c>
+      <c r="C318" t="s">
+        <v>184</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.0092962422903023</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>182</v>
+      </c>
+      <c r="B319" t="n">
+        <v>32</v>
+      </c>
+      <c r="C319" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.00929619194723019</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>182</v>
+      </c>
+      <c r="B320" t="n">
+        <v>32</v>
+      </c>
+      <c r="C320" t="s">
+        <v>28</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.00929396068919264</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>182</v>
+      </c>
+      <c r="B321" t="n">
+        <v>32</v>
+      </c>
+      <c r="C321" t="s">
+        <v>185</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.00774621371091421</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>186</v>
+      </c>
+      <c r="B322" t="n">
+        <v>33</v>
+      </c>
+      <c r="C322" t="s">
+        <v>93</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.049754898548234</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>186</v>
+      </c>
+      <c r="B323" t="n">
+        <v>33</v>
+      </c>
+      <c r="C323" t="s">
+        <v>67</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.0331074569377344</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>186</v>
+      </c>
+      <c r="B324" t="n">
+        <v>33</v>
+      </c>
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.0326758555363061</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>186</v>
+      </c>
+      <c r="B325" t="n">
+        <v>33</v>
+      </c>
+      <c r="C325" t="s">
+        <v>187</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.0247925927499669</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>186</v>
+      </c>
+      <c r="B326" t="n">
+        <v>33</v>
+      </c>
+      <c r="C326" t="s">
+        <v>188</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.0166272402289584</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>186</v>
+      </c>
+      <c r="B327" t="n">
+        <v>33</v>
+      </c>
+      <c r="C327" t="s">
+        <v>189</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.0165013509008103</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>186</v>
+      </c>
+      <c r="B328" t="n">
+        <v>33</v>
+      </c>
+      <c r="C328" t="s">
+        <v>61</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.0164750957618808</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>186</v>
+      </c>
+      <c r="B329" t="n">
+        <v>33</v>
+      </c>
+      <c r="C329" t="s">
+        <v>139</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.0164378774914648</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>186</v>
+      </c>
+      <c r="B330" t="n">
+        <v>33</v>
+      </c>
+      <c r="C330" t="s">
+        <v>190</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.0164162808519812</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>186</v>
+      </c>
+      <c r="B331" t="n">
+        <v>33</v>
+      </c>
+      <c r="C331" t="s">
+        <v>63</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.0163929917161745</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>191</v>
+      </c>
+      <c r="B332" t="n">
+        <v>34</v>
+      </c>
+      <c r="C332" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.0643274142621833</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>191</v>
+      </c>
+      <c r="B333" t="n">
+        <v>34</v>
+      </c>
+      <c r="C333" t="s">
+        <v>19</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.028089241771524</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>191</v>
+      </c>
+      <c r="B334" t="n">
+        <v>34</v>
+      </c>
+      <c r="C334" t="s">
+        <v>67</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.0200086293381148</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>191</v>
+      </c>
+      <c r="B335" t="n">
+        <v>34</v>
+      </c>
+      <c r="C335" t="s">
+        <v>69</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.0200055106320817</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>191</v>
+      </c>
+      <c r="B336" t="n">
+        <v>34</v>
+      </c>
+      <c r="C336" t="s">
+        <v>171</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.0200035577526659</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>191</v>
+      </c>
+      <c r="B337" t="n">
+        <v>34</v>
+      </c>
+      <c r="C337" t="s">
+        <v>41</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.0159655834388527</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>191</v>
+      </c>
+      <c r="B338" t="n">
+        <v>34</v>
+      </c>
+      <c r="C338" t="s">
+        <v>123</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.0159638075060831</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>191</v>
+      </c>
+      <c r="B339" t="n">
+        <v>34</v>
+      </c>
+      <c r="C339" t="s">
+        <v>192</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.0120273939909126</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>191</v>
+      </c>
+      <c r="B340" t="n">
+        <v>34</v>
+      </c>
+      <c r="C340" t="s">
+        <v>73</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.011994011199792</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>191</v>
+      </c>
+      <c r="B341" t="n">
+        <v>34</v>
+      </c>
+      <c r="C341" t="s">
+        <v>54</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.0119894209285761</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>193</v>
+      </c>
+      <c r="B342" t="n">
+        <v>35</v>
+      </c>
+      <c r="C342" t="s">
+        <v>47</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.043024033677798</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>193</v>
+      </c>
+      <c r="B343" t="n">
+        <v>35</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.0180948534269112</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>193</v>
+      </c>
+      <c r="B344" t="n">
+        <v>35</v>
+      </c>
+      <c r="C344" t="s">
+        <v>55</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.0169875222169213</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>193</v>
+      </c>
+      <c r="B345" t="n">
+        <v>35</v>
+      </c>
+      <c r="C345" t="s">
+        <v>194</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.0158549998737008</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>193</v>
+      </c>
+      <c r="B346" t="n">
+        <v>35</v>
+      </c>
+      <c r="C346" t="s">
+        <v>108</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.0152617854741088</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>193</v>
+      </c>
+      <c r="B347" t="n">
+        <v>35</v>
+      </c>
+      <c r="C347" t="s">
+        <v>195</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.011871704309724</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>193</v>
+      </c>
+      <c r="B348" t="n">
+        <v>35</v>
+      </c>
+      <c r="C348" t="s">
+        <v>28</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.011861792803924</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>193</v>
+      </c>
+      <c r="B349" t="n">
+        <v>35</v>
+      </c>
+      <c r="C349" t="s">
+        <v>140</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.0113097988667128</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>193</v>
+      </c>
+      <c r="B350" t="n">
+        <v>35</v>
+      </c>
+      <c r="C350" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.0113047627476382</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>193</v>
+      </c>
+      <c r="B351" t="n">
+        <v>35</v>
+      </c>
+      <c r="C351" t="s">
+        <v>9</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.0112286176383174</v>
       </c>
     </row>
   </sheetData>
